--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1435,7 +1436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1503,8 +1504,54 @@
       <name val="Bernard MT Condensed"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF003300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1514,6 +1561,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,7 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1558,7 +1623,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1568,6 +1659,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF003300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1868,7 +1964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1876,30 +1972,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="123" customWidth="1"/>
+    <col min="3" max="3" width="105.5" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:5" ht="26.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="C2" s="10" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" t="s">
         <v>461</v>
       </c>
@@ -1913,276 +2009,333 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="11">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="11">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21">
       <c r="A8" s="11">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="11">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21">
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="11">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="11">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
+      <c r="E11" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="11">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="21">
+      <c r="E12" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="11">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="21">
+      <c r="E13" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="11">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21">
+      <c r="D14" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E14" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="11">
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21">
+      <c r="D15" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E15" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="11">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21">
+      <c r="D16" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="E16" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21">
       <c r="A17" s="11">
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21">
+      <c r="D17" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21">
       <c r="A18" s="11">
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="21">
+      <c r="E18" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21">
       <c r="A19" s="11">
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="21">
+      <c r="D19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21">
       <c r="A20" s="11">
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="21">
+      <c r="D20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21">
       <c r="A21" s="11">
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="21">
+      <c r="D21" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21">
       <c r="A22" s="11">
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="21">
+      <c r="D22" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="E22" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21">
       <c r="A23" s="11">
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="21">
+      <c r="D23" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E23" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21">
       <c r="A24" s="11">
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="21">
+      <c r="D24" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="E24" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21">
       <c r="A25" s="11">
         <v>20</v>
       </c>
@@ -2195,8 +2348,11 @@
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="21">
+      <c r="E25" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21">
       <c r="A26" s="11">
         <v>21</v>
       </c>
@@ -2209,22 +2365,28 @@
       <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="21">
+      <c r="E26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21">
       <c r="A27" s="11">
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21">
+      <c r="D27" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="E27" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21">
       <c r="A28" s="11">
         <v>23</v>
       </c>
@@ -2237,8 +2399,11 @@
       <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="21">
+      <c r="E28" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21">
       <c r="A29" s="11">
         <v>24</v>
       </c>
@@ -2251,8 +2416,11 @@
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="21">
+      <c r="E29" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21">
       <c r="A30" s="11">
         <v>25</v>
       </c>
@@ -2265,8 +2433,11 @@
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="21">
+      <c r="E30" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21">
       <c r="A31" s="11">
         <v>26</v>
       </c>
@@ -2279,8 +2450,11 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="21">
+      <c r="E31" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21">
       <c r="A32" s="11">
         <v>27</v>
       </c>
@@ -2293,8 +2467,11 @@
       <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="21">
+      <c r="E32" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21">
       <c r="A33" s="11">
         <v>28</v>
       </c>
@@ -2307,8 +2484,11 @@
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="21">
+      <c r="E33" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21">
       <c r="A34" s="11">
         <v>29</v>
       </c>
@@ -2321,8 +2501,11 @@
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="21">
+      <c r="E34" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21">
       <c r="A35" s="11">
         <v>30</v>
       </c>
@@ -2335,8 +2518,11 @@
       <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="21">
+      <c r="E35" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21">
       <c r="A36" s="11">
         <v>31</v>
       </c>
@@ -2349,8 +2535,11 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="21">
+      <c r="E36" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21">
       <c r="A37" s="11">
         <v>32</v>
       </c>
@@ -2363,8 +2552,11 @@
       <c r="D37" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="21">
+      <c r="E37" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21">
       <c r="A38" s="11">
         <v>33</v>
       </c>
@@ -2377,8 +2569,11 @@
       <c r="D38" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="21">
+      <c r="E38" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21">
       <c r="A39" s="11">
         <v>34</v>
       </c>
@@ -2391,8 +2586,11 @@
       <c r="D39" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="21">
+      <c r="E39" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21">
       <c r="A40" s="11">
         <v>35</v>
       </c>
@@ -2405,8 +2603,11 @@
       <c r="D40" s="4" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="21">
+      <c r="E40" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21">
       <c r="A41" s="11">
         <v>36</v>
       </c>
@@ -2419,15 +2620,18 @@
       <c r="D41" s="4" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="21">
+      <c r="E41" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21">
       <c r="A42" s="11"/>
       <c r="C42" s="7"/>
       <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="21">
+    <row r="43" spans="1:5" ht="21">
       <c r="A43" s="11"/>
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
@@ -2435,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="21">
+    <row r="44" spans="1:5" ht="21">
       <c r="A44" s="11">
         <v>1</v>
       </c>
@@ -2449,7 +2653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="21">
+    <row r="45" spans="1:5" ht="21">
       <c r="A45" s="11">
         <v>2</v>
       </c>
@@ -2463,7 +2667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="21">
+    <row r="46" spans="1:5" ht="21">
       <c r="A46" s="11">
         <v>3</v>
       </c>
@@ -2477,7 +2681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21">
+    <row r="47" spans="1:5" ht="21">
       <c r="A47" s="11">
         <v>4</v>
       </c>
@@ -2491,7 +2695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21">
+    <row r="48" spans="1:5" ht="21">
       <c r="A48" s="11">
         <v>5</v>
       </c>
